--- a/log/RunRealTimeStock/2024-08-13DailyResultWeb.xlsx
+++ b/log/RunRealTimeStock/2024-08-13DailyResultWeb.xlsx
@@ -35600,10 +35600,8 @@
       </c>
     </row>
     <row r="2066">
-      <c r="A2066" t="inlineStr">
-        <is>
-          <t>6223</t>
-        </is>
+      <c r="A2066" t="n">
+        <v>6223</v>
       </c>
       <c r="B2066" t="n">
         <v>591</v>
